--- a/3_Results/33_ResultsHTC/htc_spillover_unadjusted.xlsx
+++ b/3_Results/33_ResultsHTC/htc_spillover_unadjusted.xlsx
@@ -553,19 +553,19 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.407</v>
+        <v>-0.41</v>
       </c>
       <c r="E2">
-        <v>-0.819</v>
+        <v>-0.82</v>
       </c>
       <c r="F2">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.053</v>
+        <v>0.05</v>
       </c>
       <c r="H2">
-        <v>0.044</v>
+        <v>0.04</v>
       </c>
       <c r="I2">
         <v>0.21</v>
@@ -574,7 +574,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GLMM</t>
+          <t>GLM</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -584,35 +584,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Indirect</t>
         </is>
       </c>
       <c r="D3">
-        <v>-0.407</v>
+        <v>-0.04</v>
       </c>
       <c r="E3">
-        <v>-0.819</v>
+        <v>-0.62</v>
       </c>
       <c r="F3">
-        <v>0.005</v>
+        <v>0.54</v>
       </c>
       <c r="G3">
-        <v>0.053</v>
+        <v>0.9</v>
       </c>
       <c r="H3">
-        <v>0.044</v>
+        <v>0.09</v>
       </c>
       <c r="I3">
-        <v>0.21</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GEE</t>
+          <t>GLM</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -622,29 +619,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Indirect Calculated</t>
         </is>
       </c>
       <c r="D4">
-        <v>-0.403</v>
-      </c>
-      <c r="E4">
-        <v>-0.799</v>
-      </c>
-      <c r="F4">
-        <v>-0.007</v>
-      </c>
-      <c r="G4">
-        <v>0.046</v>
-      </c>
-      <c r="H4">
-        <v>0.041</v>
-      </c>
-      <c r="I4">
-        <v>0.202</v>
-      </c>
-      <c r="J4">
-        <v>-0</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="5">
@@ -660,32 +639,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Indirect</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="D5">
-        <v>-0.038</v>
+        <v>-0.44</v>
       </c>
       <c r="E5">
-        <v>-0.618</v>
+        <v>-0.85</v>
       </c>
       <c r="F5">
-        <v>0.542</v>
+        <v>-0.04</v>
       </c>
       <c r="G5">
-        <v>0.898</v>
+        <v>0.03</v>
       </c>
       <c r="H5">
-        <v>0.08799999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="I5">
-        <v>0.296</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GLMM</t>
+          <t>GLM</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -695,32 +674,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Indirect</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="D6">
-        <v>-0.038</v>
+        <v>0.09</v>
       </c>
       <c r="E6">
-        <v>-0.627</v>
+        <v>-1.16</v>
       </c>
       <c r="F6">
-        <v>0.551</v>
+        <v>1.33</v>
       </c>
       <c r="G6">
-        <v>0.898</v>
+        <v>0.45</v>
       </c>
       <c r="H6">
-        <v>0.09</v>
+        <v>0.41</v>
       </c>
       <c r="I6">
-        <v>0.301</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GEE</t>
+          <t>GLM</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -730,32 +709,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Indirect</t>
+          <t>PM Calculated</t>
         </is>
       </c>
       <c r="D7">
-        <v>-0.038</v>
-      </c>
-      <c r="E7">
-        <v>-0.612</v>
-      </c>
-      <c r="F7">
-        <v>0.536</v>
-      </c>
-      <c r="G7">
-        <v>0.897</v>
-      </c>
-      <c r="H7">
-        <v>0.08599999999999999</v>
-      </c>
-      <c r="I7">
-        <v>0.293</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GLM</t>
+          <t>GLMM</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -765,11 +729,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Indirect Calculated</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="D8">
-        <v>-0.038</v>
+        <v>-0.41</v>
+      </c>
+      <c r="E8">
+        <v>-0.82</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0.05</v>
+      </c>
+      <c r="H8">
+        <v>0.04</v>
+      </c>
+      <c r="I8">
+        <v>0.21</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -785,17 +767,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Indirect Calculated</t>
+          <t>Indirect</t>
         </is>
       </c>
       <c r="D9">
-        <v>-0.042</v>
+        <v>-0.04</v>
+      </c>
+      <c r="E9">
+        <v>-0.63</v>
+      </c>
+      <c r="F9">
+        <v>0.55</v>
+      </c>
+      <c r="G9">
+        <v>0.9</v>
+      </c>
+      <c r="H9">
+        <v>0.09</v>
+      </c>
+      <c r="I9">
+        <v>0.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GEE</t>
+          <t>GLMM</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -809,13 +806,13 @@
         </is>
       </c>
       <c r="D10">
-        <v>-0.045</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GLM</t>
+          <t>GLMM</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -829,22 +826,25 @@
         </is>
       </c>
       <c r="D11">
-        <v>-0.445</v>
+        <v>-0.45</v>
       </c>
       <c r="E11">
-        <v>-0.853</v>
+        <v>-0.88</v>
       </c>
       <c r="F11">
-        <v>-0.036</v>
+        <v>-0.02</v>
       </c>
       <c r="G11">
-        <v>0.033</v>
+        <v>0.04</v>
       </c>
       <c r="H11">
-        <v>0.043</v>
+        <v>0.05</v>
       </c>
       <c r="I11">
-        <v>0.208</v>
+        <v>0.22</v>
+      </c>
+      <c r="J11">
+        <v>0.01</v>
       </c>
     </row>
     <row r="12">
@@ -860,35 +860,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="D12">
-        <v>-0.449</v>
+        <v>0.09</v>
       </c>
       <c r="E12">
-        <v>-0.877</v>
+        <v>-1.18</v>
       </c>
       <c r="F12">
-        <v>-0.021</v>
+        <v>1.35</v>
       </c>
       <c r="G12">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="H12">
-        <v>0.048</v>
+        <v>0.42</v>
       </c>
       <c r="I12">
-        <v>0.219</v>
-      </c>
-      <c r="J12">
-        <v>0.008999999999999999</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GEE</t>
+          <t>GLMM</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -898,35 +895,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>PM Calculated</t>
         </is>
       </c>
       <c r="D13">
-        <v>-0.448</v>
-      </c>
-      <c r="E13">
-        <v>-0.862</v>
-      </c>
-      <c r="F13">
-        <v>-0.034</v>
-      </c>
-      <c r="G13">
-        <v>0.034</v>
-      </c>
-      <c r="H13">
-        <v>0.045</v>
-      </c>
-      <c r="I13">
-        <v>0.211</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GLM</t>
+          <t>GEE</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -936,32 +915,35 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="D14">
-        <v>0.08599999999999999</v>
+        <v>-0.4</v>
       </c>
       <c r="E14">
-        <v>-1.164</v>
+        <v>-0.8</v>
       </c>
       <c r="F14">
-        <v>1.335</v>
+        <v>-0.01</v>
       </c>
       <c r="G14">
-        <v>0.447</v>
+        <v>0.05</v>
       </c>
       <c r="H14">
-        <v>0.406</v>
+        <v>0.04</v>
       </c>
       <c r="I14">
-        <v>0.637</v>
+        <v>0.2</v>
+      </c>
+      <c r="J14">
+        <v>-0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GLMM</t>
+          <t>GEE</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -971,26 +953,26 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>Indirect</t>
         </is>
       </c>
       <c r="D15">
-        <v>0.08599999999999999</v>
+        <v>-0.04</v>
       </c>
       <c r="E15">
-        <v>-1.178</v>
+        <v>-0.61</v>
       </c>
       <c r="F15">
-        <v>1.351</v>
+        <v>0.54</v>
       </c>
       <c r="G15">
-        <v>0.447</v>
+        <v>0.9</v>
       </c>
       <c r="H15">
-        <v>0.416</v>
+        <v>0.09</v>
       </c>
       <c r="I15">
-        <v>0.645</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="16">
@@ -1006,32 +988,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>Indirect Calculated</t>
         </is>
       </c>
       <c r="D16">
-        <v>0.08599999999999999</v>
-      </c>
-      <c r="E16">
-        <v>-1.148</v>
-      </c>
-      <c r="F16">
-        <v>1.319</v>
-      </c>
-      <c r="G16">
-        <v>0.446</v>
-      </c>
-      <c r="H16">
-        <v>0.396</v>
-      </c>
-      <c r="I16">
-        <v>0.63</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GLM</t>
+          <t>GEE</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1041,17 +1008,35 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PM Calculated</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="D17">
-        <v>0.08599999999999999</v>
+        <v>-0.45</v>
+      </c>
+      <c r="E17">
+        <v>-0.86</v>
+      </c>
+      <c r="F17">
+        <v>-0.03</v>
+      </c>
+      <c r="G17">
+        <v>0.03</v>
+      </c>
+      <c r="H17">
+        <v>0.04</v>
+      </c>
+      <c r="I17">
+        <v>0.21</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GLMM</t>
+          <t>GEE</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1061,11 +1046,26 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PM Calculated</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="D18">
-        <v>0.094</v>
+        <v>0.09</v>
+      </c>
+      <c r="E18">
+        <v>-1.15</v>
+      </c>
+      <c r="F18">
+        <v>1.32</v>
+      </c>
+      <c r="G18">
+        <v>0.45</v>
+      </c>
+      <c r="H18">
+        <v>0.4</v>
+      </c>
+      <c r="I18">
+        <v>0.63</v>
       </c>
     </row>
     <row r="19">
@@ -1170,19 +1170,19 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.666</v>
+        <v>0.67</v>
       </c>
       <c r="E2">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="F2">
-        <v>1.005</v>
+        <v>1.01</v>
       </c>
       <c r="G2">
-        <v>0.053</v>
+        <v>0.05</v>
       </c>
       <c r="H2">
-        <v>0.044</v>
+        <v>0.04</v>
       </c>
       <c r="I2">
         <v>0.21</v>
@@ -1191,7 +1191,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GLMM</t>
+          <t>GLM</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1201,35 +1201,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Indirect</t>
         </is>
       </c>
       <c r="D3">
-        <v>0.666</v>
+        <v>0.96</v>
       </c>
       <c r="E3">
-        <v>0.441</v>
+        <v>0.54</v>
       </c>
       <c r="F3">
-        <v>1.005</v>
+        <v>1.72</v>
       </c>
       <c r="G3">
-        <v>0.053</v>
+        <v>0.9</v>
       </c>
       <c r="H3">
-        <v>0.044</v>
+        <v>0.09</v>
       </c>
       <c r="I3">
-        <v>0.21</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GEE</t>
+          <t>GLM</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1239,29 +1236,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Indirect Calculated</t>
         </is>
       </c>
       <c r="D4">
-        <v>0.668</v>
-      </c>
-      <c r="E4">
-        <v>0.45</v>
-      </c>
-      <c r="F4">
-        <v>0.993</v>
-      </c>
-      <c r="G4">
-        <v>0.046</v>
-      </c>
-      <c r="H4">
-        <v>0.041</v>
-      </c>
-      <c r="I4">
-        <v>0.202</v>
-      </c>
-      <c r="J4">
-        <v>-0</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="5">
@@ -1277,32 +1256,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Indirect</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="D5">
-        <v>0.963</v>
+        <v>0.64</v>
       </c>
       <c r="E5">
-        <v>0.539</v>
+        <v>0.43</v>
       </c>
       <c r="F5">
-        <v>1.719</v>
+        <v>0.96</v>
       </c>
       <c r="G5">
-        <v>0.898</v>
+        <v>0.03</v>
       </c>
       <c r="H5">
-        <v>0.08799999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="I5">
-        <v>0.296</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GLMM</t>
+          <t>GLM</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1312,32 +1291,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Indirect</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="D6">
-        <v>0.962</v>
+        <v>0.09</v>
       </c>
       <c r="E6">
-        <v>0.534</v>
+        <v>-1.16</v>
       </c>
       <c r="F6">
-        <v>1.734</v>
+        <v>1.33</v>
       </c>
       <c r="G6">
-        <v>0.898</v>
+        <v>0.45</v>
       </c>
       <c r="H6">
-        <v>0.09</v>
+        <v>0.41</v>
       </c>
       <c r="I6">
-        <v>0.301</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GEE</t>
+          <t>GLM</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1347,32 +1326,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Indirect</t>
+          <t>PM Calculated</t>
         </is>
       </c>
       <c r="D7">
-        <v>0.963</v>
-      </c>
-      <c r="E7">
-        <v>0.542</v>
-      </c>
-      <c r="F7">
-        <v>1.709</v>
-      </c>
-      <c r="G7">
-        <v>0.897</v>
-      </c>
-      <c r="H7">
-        <v>0.08599999999999999</v>
-      </c>
-      <c r="I7">
-        <v>0.293</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GLM</t>
+          <t>GLMM</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1382,11 +1346,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Indirect Calculated</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="D8">
-        <v>0.963</v>
+        <v>0.67</v>
+      </c>
+      <c r="E8">
+        <v>0.44</v>
+      </c>
+      <c r="F8">
+        <v>1.01</v>
+      </c>
+      <c r="G8">
+        <v>0.05</v>
+      </c>
+      <c r="H8">
+        <v>0.04</v>
+      </c>
+      <c r="I8">
+        <v>0.21</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1402,17 +1384,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Indirect Calculated</t>
+          <t>Indirect</t>
         </is>
       </c>
       <c r="D9">
-        <v>0.959</v>
+        <v>0.96</v>
+      </c>
+      <c r="E9">
+        <v>0.53</v>
+      </c>
+      <c r="F9">
+        <v>1.73</v>
+      </c>
+      <c r="G9">
+        <v>0.9</v>
+      </c>
+      <c r="H9">
+        <v>0.09</v>
+      </c>
+      <c r="I9">
+        <v>0.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GEE</t>
+          <t>GLMM</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1426,13 +1423,13 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.956</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GLM</t>
+          <t>GLMM</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1446,22 +1443,25 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.641</v>
+        <v>0.64</v>
       </c>
       <c r="E11">
-        <v>0.426</v>
+        <v>0.42</v>
       </c>
       <c r="F11">
-        <v>0.964</v>
+        <v>0.98</v>
       </c>
       <c r="G11">
-        <v>0.033</v>
+        <v>0.04</v>
       </c>
       <c r="H11">
-        <v>0.043</v>
+        <v>0.05</v>
       </c>
       <c r="I11">
-        <v>0.208</v>
+        <v>0.22</v>
+      </c>
+      <c r="J11">
+        <v>0.01</v>
       </c>
     </row>
     <row r="12">
@@ -1477,35 +1477,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="D12">
-        <v>0.638</v>
+        <v>0.09</v>
       </c>
       <c r="E12">
-        <v>0.416</v>
+        <v>-1.18</v>
       </c>
       <c r="F12">
-        <v>0.98</v>
+        <v>1.35</v>
       </c>
       <c r="G12">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="H12">
-        <v>0.048</v>
+        <v>0.42</v>
       </c>
       <c r="I12">
-        <v>0.219</v>
-      </c>
-      <c r="J12">
-        <v>0.008999999999999999</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GEE</t>
+          <t>GLMM</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1515,35 +1512,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>PM Calculated</t>
         </is>
       </c>
       <c r="D13">
-        <v>0.639</v>
-      </c>
-      <c r="E13">
-        <v>0.422</v>
-      </c>
-      <c r="F13">
-        <v>0.967</v>
-      </c>
-      <c r="G13">
-        <v>0.034</v>
-      </c>
-      <c r="H13">
-        <v>0.045</v>
-      </c>
-      <c r="I13">
-        <v>0.211</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GLM</t>
+          <t>GEE</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1553,32 +1532,35 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="D14">
-        <v>0.08599999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="E14">
-        <v>-1.164</v>
+        <v>0.45</v>
       </c>
       <c r="F14">
-        <v>1.335</v>
+        <v>0.99</v>
       </c>
       <c r="G14">
-        <v>0.447</v>
+        <v>0.05</v>
       </c>
       <c r="H14">
-        <v>0.406</v>
+        <v>0.04</v>
       </c>
       <c r="I14">
-        <v>0.637</v>
+        <v>0.2</v>
+      </c>
+      <c r="J14">
+        <v>-0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GLMM</t>
+          <t>GEE</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1588,26 +1570,26 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>Indirect</t>
         </is>
       </c>
       <c r="D15">
-        <v>0.08599999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="E15">
-        <v>-1.178</v>
+        <v>0.54</v>
       </c>
       <c r="F15">
-        <v>1.351</v>
+        <v>1.71</v>
       </c>
       <c r="G15">
-        <v>0.447</v>
+        <v>0.9</v>
       </c>
       <c r="H15">
-        <v>0.416</v>
+        <v>0.09</v>
       </c>
       <c r="I15">
-        <v>0.645</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="16">
@@ -1623,32 +1605,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>Indirect Calculated</t>
         </is>
       </c>
       <c r="D16">
-        <v>0.08599999999999999</v>
-      </c>
-      <c r="E16">
-        <v>-1.148</v>
-      </c>
-      <c r="F16">
-        <v>1.319</v>
-      </c>
-      <c r="G16">
-        <v>0.446</v>
-      </c>
-      <c r="H16">
-        <v>0.396</v>
-      </c>
-      <c r="I16">
-        <v>0.63</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GLM</t>
+          <t>GEE</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1658,17 +1625,35 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PM Calculated</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="D17">
-        <v>0.08599999999999999</v>
+        <v>0.64</v>
+      </c>
+      <c r="E17">
+        <v>0.42</v>
+      </c>
+      <c r="F17">
+        <v>0.97</v>
+      </c>
+      <c r="G17">
+        <v>0.03</v>
+      </c>
+      <c r="H17">
+        <v>0.04</v>
+      </c>
+      <c r="I17">
+        <v>0.21</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GLMM</t>
+          <t>GEE</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1678,11 +1663,26 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PM Calculated</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="D18">
-        <v>0.094</v>
+        <v>0.09</v>
+      </c>
+      <c r="E18">
+        <v>-1.15</v>
+      </c>
+      <c r="F18">
+        <v>1.32</v>
+      </c>
+      <c r="G18">
+        <v>0.45</v>
+      </c>
+      <c r="H18">
+        <v>0.4</v>
+      </c>
+      <c r="I18">
+        <v>0.63</v>
       </c>
     </row>
     <row r="19">
@@ -1787,22 +1787,22 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.445</v>
+        <v>-0.44</v>
       </c>
       <c r="E2">
-        <v>-0.853</v>
+        <v>-0.85</v>
       </c>
       <c r="F2">
-        <v>-0.036</v>
+        <v>-0.04</v>
       </c>
       <c r="G2">
-        <v>0.033</v>
+        <v>0.03</v>
       </c>
       <c r="H2">
-        <v>0.043</v>
+        <v>0.04</v>
       </c>
       <c r="I2">
-        <v>0.208</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="3">
@@ -1822,25 +1822,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.449</v>
+        <v>-0.45</v>
       </c>
       <c r="E3">
-        <v>-0.877</v>
+        <v>-0.88</v>
       </c>
       <c r="F3">
-        <v>-0.021</v>
+        <v>-0.02</v>
       </c>
       <c r="G3">
         <v>0.04</v>
       </c>
       <c r="H3">
-        <v>0.048</v>
+        <v>0.05</v>
       </c>
       <c r="I3">
-        <v>0.219</v>
+        <v>0.22</v>
       </c>
       <c r="J3">
-        <v>0.008999999999999999</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -1860,22 +1860,22 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.448</v>
+        <v>-0.45</v>
       </c>
       <c r="E4">
-        <v>-0.862</v>
+        <v>-0.86</v>
       </c>
       <c r="F4">
-        <v>-0.034</v>
+        <v>-0.03</v>
       </c>
       <c r="G4">
-        <v>0.034</v>
+        <v>0.03</v>
       </c>
       <c r="H4">
-        <v>0.045</v>
+        <v>0.04</v>
       </c>
       <c r="I4">
-        <v>0.211</v>
+        <v>0.21</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1963,22 +1963,22 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.641</v>
+        <v>0.64</v>
       </c>
       <c r="E2">
-        <v>0.426</v>
+        <v>0.43</v>
       </c>
       <c r="F2">
-        <v>0.964</v>
+        <v>0.96</v>
       </c>
       <c r="G2">
-        <v>0.033</v>
+        <v>0.03</v>
       </c>
       <c r="H2">
-        <v>0.043</v>
+        <v>0.04</v>
       </c>
       <c r="I2">
-        <v>0.208</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="3">
@@ -1998,10 +1998,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.638</v>
+        <v>0.64</v>
       </c>
       <c r="E3">
-        <v>0.416</v>
+        <v>0.42</v>
       </c>
       <c r="F3">
         <v>0.98</v>
@@ -2010,13 +2010,13 @@
         <v>0.04</v>
       </c>
       <c r="H3">
-        <v>0.048</v>
+        <v>0.05</v>
       </c>
       <c r="I3">
-        <v>0.219</v>
+        <v>0.22</v>
       </c>
       <c r="J3">
-        <v>0.008999999999999999</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -2036,22 +2036,22 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.639</v>
+        <v>0.64</v>
       </c>
       <c r="E4">
-        <v>0.422</v>
+        <v>0.42</v>
       </c>
       <c r="F4">
-        <v>0.967</v>
+        <v>0.97</v>
       </c>
       <c r="G4">
-        <v>0.034</v>
+        <v>0.03</v>
       </c>
       <c r="H4">
-        <v>0.045</v>
+        <v>0.04</v>
       </c>
       <c r="I4">
-        <v>0.211</v>
+        <v>0.21</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -2139,19 +2139,19 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.407</v>
+        <v>-0.41</v>
       </c>
       <c r="E2">
-        <v>-0.819</v>
+        <v>-0.82</v>
       </c>
       <c r="F2">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.053</v>
+        <v>0.05</v>
       </c>
       <c r="H2">
-        <v>0.044</v>
+        <v>0.04</v>
       </c>
       <c r="I2">
         <v>0.21</v>
@@ -2174,22 +2174,22 @@
         </is>
       </c>
       <c r="D3">
-        <v>3.414</v>
+        <v>3.41</v>
       </c>
       <c r="E3">
-        <v>-0.08400000000000001</v>
+        <v>-0.08</v>
       </c>
       <c r="F3">
-        <v>6.912</v>
+        <v>6.91</v>
       </c>
       <c r="G3">
-        <v>0.056</v>
+        <v>0.06</v>
       </c>
       <c r="H3">
-        <v>3.186</v>
+        <v>3.19</v>
       </c>
       <c r="I3">
-        <v>1.785</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="4">
@@ -2209,19 +2209,19 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.407</v>
+        <v>-0.41</v>
       </c>
       <c r="E4">
-        <v>-0.819</v>
+        <v>-0.82</v>
       </c>
       <c r="F4">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.053</v>
+        <v>0.05</v>
       </c>
       <c r="H4">
-        <v>0.044</v>
+        <v>0.04</v>
       </c>
       <c r="I4">
         <v>0.21</v>
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D5">
-        <v>3.414</v>
+        <v>3.41</v>
       </c>
       <c r="E5">
-        <v>-0.082</v>
+        <v>-0.08</v>
       </c>
       <c r="F5">
         <v>6.91</v>
       </c>
       <c r="G5">
-        <v>0.056</v>
+        <v>0.06</v>
       </c>
       <c r="H5">
-        <v>3.182</v>
+        <v>3.18</v>
       </c>
       <c r="I5">
-        <v>1.784</v>
+        <v>1.78</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -2285,22 +2285,22 @@
         </is>
       </c>
       <c r="D6">
-        <v>-0.403</v>
+        <v>-0.4</v>
       </c>
       <c r="E6">
-        <v>-0.799</v>
+        <v>-0.8</v>
       </c>
       <c r="F6">
-        <v>-0.007</v>
+        <v>-0.01</v>
       </c>
       <c r="G6">
-        <v>0.046</v>
+        <v>0.05</v>
       </c>
       <c r="H6">
-        <v>0.041</v>
+        <v>0.04</v>
       </c>
       <c r="I6">
-        <v>0.202</v>
+        <v>0.2</v>
       </c>
       <c r="J6">
         <v>-0</v>
@@ -2323,22 +2323,22 @@
         </is>
       </c>
       <c r="D7">
-        <v>3.455</v>
+        <v>3.45</v>
       </c>
       <c r="E7">
-        <v>-0.206</v>
+        <v>-0.21</v>
       </c>
       <c r="F7">
-        <v>7.115</v>
+        <v>7.12</v>
       </c>
       <c r="G7">
-        <v>0.064</v>
+        <v>0.06</v>
       </c>
       <c r="H7">
-        <v>3.488</v>
+        <v>3.49</v>
       </c>
       <c r="I7">
-        <v>1.868</v>
+        <v>1.87</v>
       </c>
       <c r="J7">
         <v>-0</v>
@@ -2426,19 +2426,19 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.666</v>
+        <v>0.67</v>
       </c>
       <c r="E2">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="F2">
-        <v>1.005</v>
+        <v>1.01</v>
       </c>
       <c r="G2">
-        <v>0.053</v>
+        <v>0.05</v>
       </c>
       <c r="H2">
-        <v>0.044</v>
+        <v>0.04</v>
       </c>
       <c r="I2">
         <v>0.21</v>
@@ -2461,22 +2461,22 @@
         </is>
       </c>
       <c r="D3">
-        <v>30.385</v>
+        <v>30.39</v>
       </c>
       <c r="E3">
-        <v>0.919</v>
+        <v>0.92</v>
       </c>
       <c r="F3">
-        <v>1004.492</v>
+        <v>1004.49</v>
       </c>
       <c r="G3">
-        <v>0.056</v>
+        <v>0.06</v>
       </c>
       <c r="H3">
-        <v>3.186</v>
+        <v>3.19</v>
       </c>
       <c r="I3">
-        <v>1.785</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="4">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.666</v>
+        <v>0.67</v>
       </c>
       <c r="E4">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="F4">
-        <v>1.005</v>
+        <v>1.01</v>
       </c>
       <c r="G4">
-        <v>0.053</v>
+        <v>0.05</v>
       </c>
       <c r="H4">
-        <v>0.044</v>
+        <v>0.04</v>
       </c>
       <c r="I4">
         <v>0.21</v>
@@ -2534,22 +2534,22 @@
         </is>
       </c>
       <c r="D5">
-        <v>30.385</v>
+        <v>30.39</v>
       </c>
       <c r="E5">
-        <v>0.921</v>
+        <v>0.92</v>
       </c>
       <c r="F5">
-        <v>1002.364</v>
+        <v>1002.36</v>
       </c>
       <c r="G5">
-        <v>0.056</v>
+        <v>0.06</v>
       </c>
       <c r="H5">
-        <v>3.182</v>
+        <v>3.18</v>
       </c>
       <c r="I5">
-        <v>1.784</v>
+        <v>1.78</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -2572,22 +2572,22 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.668</v>
+        <v>0.67</v>
       </c>
       <c r="E6">
         <v>0.45</v>
       </c>
       <c r="F6">
-        <v>0.993</v>
+        <v>0.99</v>
       </c>
       <c r="G6">
-        <v>0.046</v>
+        <v>0.05</v>
       </c>
       <c r="H6">
-        <v>0.041</v>
+        <v>0.04</v>
       </c>
       <c r="I6">
-        <v>0.202</v>
+        <v>0.2</v>
       </c>
       <c r="J6">
         <v>-0</v>
@@ -2610,22 +2610,22 @@
         </is>
       </c>
       <c r="D7">
-        <v>31.651</v>
+        <v>31.65</v>
       </c>
       <c r="E7">
-        <v>0.8139999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F7">
-        <v>1230.593</v>
+        <v>1230.59</v>
       </c>
       <c r="G7">
-        <v>0.064</v>
+        <v>0.06</v>
       </c>
       <c r="H7">
-        <v>3.488</v>
+        <v>3.49</v>
       </c>
       <c r="I7">
-        <v>1.868</v>
+        <v>1.87</v>
       </c>
       <c r="J7">
         <v>-0</v>
